--- a/SF-36/Check the Scoring of SF-36.xlsx
+++ b/SF-36/Check the Scoring of SF-36.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/CSU Classes/Consulting/SF-36/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{A9DC8B56-745C-470C-AC24-9872A98AF095}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{129BF5E8-E9E5-42AC-A88B-DF2575EDD96C}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{A9DC8B56-745C-470C-AC24-9872A98AF095}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3FBB9349-74F7-4A19-9384-5F0120A49FF0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1195,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ52"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView topLeftCell="BC1" workbookViewId="0">
+      <selection activeCell="BT1" sqref="BT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22380,7 +22380,7 @@
   <dimension ref="A1:BU55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SF-36/Check the Scoring of SF-36.xlsx
+++ b/SF-36/Check the Scoring of SF-36.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{A9DC8B56-745C-470C-AC24-9872A98AF095}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3FBB9349-74F7-4A19-9384-5F0120A49FF0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SF-36 Gold Standard" sheetId="1" r:id="rId1"/>
@@ -1195,13 +1195,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ52"/>
   <sheetViews>
-    <sheetView topLeftCell="BC1" workbookViewId="0">
-      <selection activeCell="BT1" sqref="BT1"/>
+    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
+      <selection activeCell="BP1" sqref="BP1:BP1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>44.38</v>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>41.56</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>47.19</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>35.93</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>41.56</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>75</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>77</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>38.74</v>
       </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>78</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>44.38</v>
       </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>79</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>80</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>38.74</v>
       </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>81</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>27.48</v>
       </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>83</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>38.74</v>
       </c>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>84</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>38.74</v>
       </c>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>86</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="20" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>87</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>50.01</v>
       </c>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>50.01</v>
       </c>
     </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>89</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>35.93</v>
       </c>
     </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>90</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>41.56</v>
       </c>
     </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>91</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>92</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>52.82</v>
       </c>
     </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>93</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>27.48</v>
       </c>
     </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>94</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>35.93</v>
       </c>
     </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>95</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>96</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>44.38</v>
       </c>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>97</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>27.48</v>
       </c>
     </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>98</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>41.56</v>
       </c>
     </row>
-    <row r="32" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>99</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>57.05</v>
       </c>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>100</v>
       </c>
@@ -7924,7 +7924,7 @@
         <v>12.46</v>
       </c>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>101</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>24.66</v>
       </c>
     </row>
-    <row r="35" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>102</v>
       </c>
@@ -8322,7 +8322,7 @@
       </c>
       <c r="BQ35" s="1"/>
     </row>
-    <row r="36" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>103</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>44.38</v>
       </c>
     </row>
-    <row r="37" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>104</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>42.97</v>
       </c>
     </row>
-    <row r="38" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>105</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="39" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>106</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>41.56</v>
       </c>
     </row>
-    <row r="40" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>107</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>35.93</v>
       </c>
     </row>
-    <row r="41" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>108</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>35.93</v>
       </c>
     </row>
-    <row r="42" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>109</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>38.74</v>
       </c>
     </row>
-    <row r="43" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>110</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="44" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>111</v>
       </c>
@@ -10163,7 +10163,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="45" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>112</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>38.74</v>
       </c>
     </row>
-    <row r="46" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>113</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>19.03</v>
       </c>
     </row>
-    <row r="47" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>114</v>
       </c>
@@ -10790,7 +10790,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="48" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>115</v>
       </c>
@@ -10999,7 +10999,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="49" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>116</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>41.56</v>
       </c>
     </row>
-    <row r="50" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>117</v>
       </c>
@@ -11417,7 +11417,7 @@
         <v>41.56</v>
       </c>
     </row>
-    <row r="51" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>118</v>
       </c>
@@ -11626,7 +11626,7 @@
         <v>47.19</v>
       </c>
     </row>
-    <row r="52" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>119</v>
       </c>
@@ -11837,6 +11837,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11848,12 +11849,12 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12062,7 +12063,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
@@ -12253,7 +12254,7 @@
         <v>44.38</v>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
@@ -12462,7 +12463,7 @@
         <v>41.56</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
@@ -12671,7 +12672,7 @@
         <v>47.19</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
@@ -12877,7 +12878,7 @@
         <v>35.93</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -13086,7 +13087,7 @@
         <v>41.56</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
@@ -13295,7 +13296,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>75</v>
       </c>
@@ -13501,7 +13502,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
@@ -13707,7 +13708,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>77</v>
       </c>
@@ -13916,7 +13917,7 @@
         <v>38.74</v>
       </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>78</v>
       </c>
@@ -14107,7 +14108,7 @@
         <v>44.38</v>
       </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>79</v>
       </c>
@@ -14295,7 +14296,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>80</v>
       </c>
@@ -14504,7 +14505,7 @@
         <v>38.74</v>
       </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>81</v>
       </c>
@@ -14707,7 +14708,7 @@
         <v>27.48</v>
       </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -14916,7 +14917,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>83</v>
       </c>
@@ -15104,7 +15105,7 @@
         <v>38.74</v>
       </c>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>84</v>
       </c>
@@ -15313,7 +15314,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
@@ -15519,7 +15520,7 @@
         <v>38.74</v>
       </c>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>86</v>
       </c>
@@ -15728,7 +15729,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="20" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>87</v>
       </c>
@@ -15907,7 +15908,7 @@
         <v>50.01</v>
       </c>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -16116,7 +16117,7 @@
         <v>50.01</v>
       </c>
     </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>89</v>
       </c>
@@ -16325,7 +16326,7 @@
         <v>35.93</v>
       </c>
     </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>90</v>
       </c>
@@ -16513,7 +16514,7 @@
         <v>41.56</v>
       </c>
     </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>91</v>
       </c>
@@ -16722,7 +16723,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>92</v>
       </c>
@@ -16919,7 +16920,7 @@
         <v>52.82</v>
       </c>
     </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>93</v>
       </c>
@@ -17122,7 +17123,7 @@
         <v>27.48</v>
       </c>
     </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>94</v>
       </c>
@@ -17325,7 +17326,7 @@
         <v>35.93</v>
       </c>
     </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>95</v>
       </c>
@@ -17513,7 +17514,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>96</v>
       </c>
@@ -17713,7 +17714,7 @@
         <v>44.38</v>
       </c>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>97</v>
       </c>
@@ -17901,7 +17902,7 @@
         <v>27.48</v>
       </c>
     </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>98</v>
       </c>
@@ -18104,7 +18105,7 @@
         <v>41.56</v>
       </c>
     </row>
-    <row r="32" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>99</v>
       </c>
@@ -18310,7 +18311,7 @@
         <v>57.05</v>
       </c>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>100</v>
       </c>
@@ -18489,7 +18490,7 @@
         <v>12.46</v>
       </c>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>101</v>
       </c>
@@ -18695,7 +18696,7 @@
         <v>24.66</v>
       </c>
     </row>
-    <row r="35" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>102</v>
       </c>
@@ -18877,7 +18878,7 @@
         <v>55.88</v>
       </c>
     </row>
-    <row r="36" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>103</v>
       </c>
@@ -19080,7 +19081,7 @@
         <v>44.38</v>
       </c>
     </row>
-    <row r="37" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>104</v>
       </c>
@@ -19277,7 +19278,7 @@
         <v>42.97</v>
       </c>
     </row>
-    <row r="38" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>105</v>
       </c>
@@ -19483,7 +19484,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="39" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>106</v>
       </c>
@@ -19683,7 +19684,7 @@
         <v>41.56</v>
       </c>
     </row>
-    <row r="40" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>107</v>
       </c>
@@ -19886,7 +19887,7 @@
         <v>35.93</v>
       </c>
     </row>
-    <row r="41" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>108</v>
       </c>
@@ -20083,7 +20084,7 @@
         <v>35.93</v>
       </c>
     </row>
-    <row r="42" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>109</v>
       </c>
@@ -20289,7 +20290,7 @@
         <v>38.74</v>
       </c>
     </row>
-    <row r="43" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>110</v>
       </c>
@@ -20489,7 +20490,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="44" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>111</v>
       </c>
@@ -20698,7 +20699,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="45" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>112</v>
       </c>
@@ -20907,7 +20908,7 @@
         <v>38.74</v>
       </c>
     </row>
-    <row r="46" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>113</v>
       </c>
@@ -21116,7 +21117,7 @@
         <v>19.03</v>
       </c>
     </row>
-    <row r="47" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>114</v>
       </c>
@@ -21325,7 +21326,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="48" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>115</v>
       </c>
@@ -21534,7 +21535,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="49" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>116</v>
       </c>
@@ -21743,7 +21744,7 @@
         <v>41.56</v>
       </c>
     </row>
-    <row r="50" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>117</v>
       </c>
@@ -21952,7 +21953,7 @@
         <v>41.56</v>
       </c>
     </row>
-    <row r="51" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>118</v>
       </c>
@@ -22161,7 +22162,7 @@
         <v>47.19</v>
       </c>
     </row>
-    <row r="52" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>119</v>
       </c>
@@ -22379,13 +22380,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BU55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="67" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A1">
         <f>AVERAGE(A2:BU55)*100</f>
         <v>100</v>
@@ -22679,7 +22680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>IF('SF-36 Gold Standard'!A2='Comparison File'!A2,1,0)</f>
         <v>1</v>
@@ -22973,7 +22974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>IF('SF-36 Gold Standard'!A3='Comparison File'!A3,1,0)</f>
         <v>1</v>
@@ -23267,7 +23268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>IF('SF-36 Gold Standard'!A4='Comparison File'!A4,1,0)</f>
         <v>1</v>
@@ -23561,7 +23562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>IF('SF-36 Gold Standard'!A5='Comparison File'!A5,1,0)</f>
         <v>1</v>
@@ -23855,7 +23856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>IF('SF-36 Gold Standard'!A6='Comparison File'!A6,1,0)</f>
         <v>1</v>
@@ -24149,7 +24150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>IF('SF-36 Gold Standard'!A7='Comparison File'!A7,1,0)</f>
         <v>1</v>
@@ -24443,7 +24444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>IF('SF-36 Gold Standard'!A8='Comparison File'!A8,1,0)</f>
         <v>1</v>
@@ -24737,7 +24738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>IF('SF-36 Gold Standard'!A9='Comparison File'!A9,1,0)</f>
         <v>1</v>
@@ -25031,7 +25032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>IF('SF-36 Gold Standard'!A10='Comparison File'!A10,1,0)</f>
         <v>1</v>
@@ -25325,7 +25326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>IF('SF-36 Gold Standard'!A11='Comparison File'!A11,1,0)</f>
         <v>1</v>
@@ -25619,7 +25620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>IF('SF-36 Gold Standard'!A12='Comparison File'!A12,1,0)</f>
         <v>1</v>
@@ -25913,7 +25914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A13">
         <f>IF('SF-36 Gold Standard'!A13='Comparison File'!A13,1,0)</f>
         <v>1</v>
@@ -26207,7 +26208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A14">
         <f>IF('SF-36 Gold Standard'!A14='Comparison File'!A14,1,0)</f>
         <v>1</v>
@@ -26501,7 +26502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A15">
         <f>IF('SF-36 Gold Standard'!A15='Comparison File'!A15,1,0)</f>
         <v>1</v>
@@ -26795,7 +26796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A16">
         <f>IF('SF-36 Gold Standard'!A16='Comparison File'!A16,1,0)</f>
         <v>1</v>
@@ -27089,7 +27090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A17">
         <f>IF('SF-36 Gold Standard'!A17='Comparison File'!A17,1,0)</f>
         <v>1</v>
@@ -27383,7 +27384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A18">
         <f>IF('SF-36 Gold Standard'!A18='Comparison File'!A18,1,0)</f>
         <v>1</v>
@@ -27677,7 +27678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A19">
         <f>IF('SF-36 Gold Standard'!A19='Comparison File'!A19,1,0)</f>
         <v>1</v>
@@ -27971,7 +27972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A20">
         <f>IF('SF-36 Gold Standard'!A20='Comparison File'!A20,1,0)</f>
         <v>1</v>
@@ -28265,7 +28266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A21">
         <f>IF('SF-36 Gold Standard'!A21='Comparison File'!A21,1,0)</f>
         <v>1</v>
@@ -28559,7 +28560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A22">
         <f>IF('SF-36 Gold Standard'!A22='Comparison File'!A22,1,0)</f>
         <v>1</v>
@@ -28853,7 +28854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A23">
         <f>IF('SF-36 Gold Standard'!A23='Comparison File'!A23,1,0)</f>
         <v>1</v>
@@ -29147,7 +29148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A24">
         <f>IF('SF-36 Gold Standard'!A24='Comparison File'!A24,1,0)</f>
         <v>1</v>
@@ -29441,7 +29442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A25">
         <f>IF('SF-36 Gold Standard'!A25='Comparison File'!A25,1,0)</f>
         <v>1</v>
@@ -29735,7 +29736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A26">
         <f>IF('SF-36 Gold Standard'!A26='Comparison File'!A26,1,0)</f>
         <v>1</v>
@@ -30029,7 +30030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A27">
         <f>IF('SF-36 Gold Standard'!A27='Comparison File'!A27,1,0)</f>
         <v>1</v>
@@ -30323,7 +30324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A28">
         <f>IF('SF-36 Gold Standard'!A28='Comparison File'!A28,1,0)</f>
         <v>1</v>
@@ -30617,7 +30618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A29">
         <f>IF('SF-36 Gold Standard'!A29='Comparison File'!A29,1,0)</f>
         <v>1</v>
@@ -30911,7 +30912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A30">
         <f>IF('SF-36 Gold Standard'!A30='Comparison File'!A30,1,0)</f>
         <v>1</v>
@@ -31205,7 +31206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A31">
         <f>IF('SF-36 Gold Standard'!A31='Comparison File'!A31,1,0)</f>
         <v>1</v>
@@ -31499,7 +31500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A32">
         <f>IF('SF-36 Gold Standard'!A32='Comparison File'!A32,1,0)</f>
         <v>1</v>
@@ -31793,7 +31794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A33">
         <f>IF('SF-36 Gold Standard'!A33='Comparison File'!A33,1,0)</f>
         <v>1</v>
@@ -32087,7 +32088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A34">
         <f>IF('SF-36 Gold Standard'!A34='Comparison File'!A34,1,0)</f>
         <v>1</v>
@@ -32381,7 +32382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A35">
         <f>IF('SF-36 Gold Standard'!A35='Comparison File'!A35,1,0)</f>
         <v>1</v>
@@ -32675,7 +32676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A36">
         <f>IF('SF-36 Gold Standard'!A36='Comparison File'!A36,1,0)</f>
         <v>1</v>
@@ -32969,7 +32970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A37">
         <f>IF('SF-36 Gold Standard'!A37='Comparison File'!A37,1,0)</f>
         <v>1</v>
@@ -33263,7 +33264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A38">
         <f>IF('SF-36 Gold Standard'!A38='Comparison File'!A38,1,0)</f>
         <v>1</v>
@@ -33557,7 +33558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A39">
         <f>IF('SF-36 Gold Standard'!A39='Comparison File'!A39,1,0)</f>
         <v>1</v>
@@ -33851,7 +33852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A40">
         <f>IF('SF-36 Gold Standard'!A40='Comparison File'!A40,1,0)</f>
         <v>1</v>
@@ -34145,7 +34146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A41">
         <f>IF('SF-36 Gold Standard'!A41='Comparison File'!A41,1,0)</f>
         <v>1</v>
@@ -34439,7 +34440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A42">
         <f>IF('SF-36 Gold Standard'!A42='Comparison File'!A42,1,0)</f>
         <v>1</v>
@@ -34733,7 +34734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A43">
         <f>IF('SF-36 Gold Standard'!A43='Comparison File'!A43,1,0)</f>
         <v>1</v>
@@ -35027,7 +35028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A44">
         <f>IF('SF-36 Gold Standard'!A44='Comparison File'!A44,1,0)</f>
         <v>1</v>
@@ -35321,7 +35322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A45">
         <f>IF('SF-36 Gold Standard'!A45='Comparison File'!A45,1,0)</f>
         <v>1</v>
@@ -35615,7 +35616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A46">
         <f>IF('SF-36 Gold Standard'!A46='Comparison File'!A46,1,0)</f>
         <v>1</v>
@@ -35909,7 +35910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A47">
         <f>IF('SF-36 Gold Standard'!A47='Comparison File'!A47,1,0)</f>
         <v>1</v>
@@ -36203,7 +36204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A48">
         <f>IF('SF-36 Gold Standard'!A48='Comparison File'!A48,1,0)</f>
         <v>1</v>
@@ -36497,7 +36498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A49">
         <f>IF('SF-36 Gold Standard'!A49='Comparison File'!A49,1,0)</f>
         <v>1</v>
@@ -36791,7 +36792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A50">
         <f>IF('SF-36 Gold Standard'!A50='Comparison File'!A50,1,0)</f>
         <v>1</v>
@@ -37085,7 +37086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A51">
         <f>IF('SF-36 Gold Standard'!A51='Comparison File'!A51,1,0)</f>
         <v>1</v>
@@ -37379,7 +37380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A52">
         <f>IF('SF-36 Gold Standard'!A52='Comparison File'!A52,1,0)</f>
         <v>1</v>
@@ -37673,7 +37674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A53">
         <f>IF('SF-36 Gold Standard'!A53='Comparison File'!A53,1,0)</f>
         <v>1</v>
@@ -37967,7 +37968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A54">
         <f>IF('SF-36 Gold Standard'!A54='Comparison File'!A54,1,0)</f>
         <v>1</v>
@@ -38261,7 +38262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A55">
         <f>IF('SF-36 Gold Standard'!A55='Comparison File'!A55,1,0)</f>
         <v>1</v>
